--- a/instance/zyjk/CDRD/web/config/testcase.xlsx
+++ b/instance/zyjk/CDRD/web/config/testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="14600" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="16760" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -539,6 +539,21 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -555,21 +570,6 @@
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -822,14 +822,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -839,6 +845,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -846,6 +855,9 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -863,6 +875,9 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,7 +924,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,9 +953,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -950,8 +962,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -965,28 +992,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -996,7 +1026,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1477,413 +1507,413 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="0"/>
   <cols>
-    <col width="20.3839285714286" customWidth="1" style="46" min="13" max="13"/>
+    <col width="20.3839285714286" customWidth="1" style="55" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>手工：需求评审：2025-12-19，用例完成：2025-12-21，用例评审：2025-12-26，执行数量：，测试完成率：，状态：[通过12，失败2，暂停0，搁置3]，测试报告：https://www.baidu.com</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="6" t="n"/>
-      <c r="D1" s="6" t="n"/>
-      <c r="E1" s="6" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="6" t="n"/>
-      <c r="I1" s="8" t="n"/>
-      <c r="J1" s="9" t="n"/>
-      <c r="K1" s="6" t="n"/>
-      <c r="L1" s="6" t="n"/>
-      <c r="M1" s="47" t="n"/>
-      <c r="N1" s="6" t="n"/>
-      <c r="O1" s="6" t="n"/>
-      <c r="P1" s="10" t="n"/>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="8" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="11" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="56" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="8" t="n"/>
+      <c r="P1" s="14" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>自动：用例完成：2025-12-21，用例评审：2025-12-26，执行数量：，测试完成率：，状态：[通过12，失败2，暂停0，搁置3]</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="11" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="15" t="n"/>
       <c r="D2" s="2" t="n"/>
-      <c r="E2" s="12" t="n"/>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="14" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
-      <c r="M2" s="48" t="n"/>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="14" t="n"/>
-      <c r="P2" s="10" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="18" t="n"/>
+      <c r="I2" s="18" t="n"/>
+      <c r="J2" s="19" t="n"/>
+      <c r="K2" s="18" t="n"/>
+      <c r="L2" s="18" t="n"/>
+      <c r="M2" s="57" t="n"/>
+      <c r="N2" s="18" t="n"/>
+      <c r="O2" s="18" t="n"/>
+      <c r="P2" s="14" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>优先级</t>
         </is>
       </c>
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>子模块</t>
         </is>
       </c>
-      <c r="D3" s="17" t="inlineStr">
+      <c r="D3" s="22" t="inlineStr">
         <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>用例类型</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="23" t="inlineStr">
         <is>
           <t>用例检查点</t>
         </is>
       </c>
-      <c r="G3" s="19" t="inlineStr">
+      <c r="G3" s="24" t="inlineStr">
         <is>
           <t>测试步骤</t>
         </is>
       </c>
-      <c r="H3" s="20" t="inlineStr">
+      <c r="H3" s="25" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="I3" s="20" t="inlineStr">
+      <c r="I3" s="25" t="inlineStr">
         <is>
           <t>web实测结果</t>
         </is>
       </c>
-      <c r="J3" s="21" t="inlineStr">
+      <c r="J3" s="26" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="K3" s="21" t="inlineStr">
+      <c r="K3" s="26" t="inlineStr">
         <is>
           <t>是否自动化</t>
         </is>
       </c>
-      <c r="L3" s="21" t="inlineStr">
+      <c r="L3" s="26" t="inlineStr">
         <is>
           <t>自动化校验</t>
         </is>
       </c>
-      <c r="M3" s="49" t="inlineStr">
+      <c r="M3" s="58" t="inlineStr">
         <is>
           <t>自动化脚本(.py)</t>
         </is>
       </c>
-      <c r="N3" s="21" t="inlineStr">
+      <c r="N3" s="26" t="inlineStr">
         <is>
           <t>自动化后置</t>
         </is>
       </c>
-      <c r="O3" s="21" t="inlineStr">
+      <c r="O3" s="26" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="P3" s="20" t="inlineStr">
+      <c r="P3" s="25" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4" ht="68" customHeight="1">
-      <c r="A4" s="22" t="inlineStr">
+      <c r="A4" s="52" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C4" s="22" t="n"/>
-      <c r="D4" s="23" t="inlineStr">
+      <c r="C4" s="52" t="n"/>
+      <c r="D4" s="53" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E4" s="23" t="inlineStr">
+      <c r="E4" s="53" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F4" s="24" t="inlineStr">
+      <c r="F4" s="29" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G4" s="25" t="inlineStr">
+      <c r="G4" s="30" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H4" s="22" t="inlineStr">
+      <c r="H4" s="52" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I4" s="22" t="n"/>
-      <c r="J4" s="22" t="inlineStr">
+      <c r="I4" s="52" t="n"/>
+      <c r="J4" s="52" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K4" s="22" t="n"/>
-      <c r="L4" s="22" t="n"/>
-      <c r="M4" s="25" t="n"/>
-      <c r="N4" s="22" t="n"/>
-      <c r="O4" s="22" t="n"/>
-      <c r="P4" s="22" t="n"/>
+      <c r="K4" s="52" t="n"/>
+      <c r="L4" s="52" t="n"/>
+      <c r="M4" s="30" t="n"/>
+      <c r="N4" s="52" t="n"/>
+      <c r="O4" s="52" t="n"/>
+      <c r="P4" s="52" t="n"/>
     </row>
     <row r="5" ht="68" customHeight="1">
-      <c r="A5" s="26" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C5" s="26" t="n"/>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="C5" s="31" t="n"/>
+      <c r="D5" s="32" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="32" t="inlineStr">
         <is>
           <t>反向</t>
         </is>
       </c>
-      <c r="F5" s="28" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="34" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="H5" s="31" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="32" t="inlineStr">
         <is>
           <t>创建2个用户，没有创建成功</t>
         </is>
       </c>
-      <c r="J5" s="26" t="inlineStr">
+      <c r="J5" s="31" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K5" s="26" t="n"/>
-      <c r="L5" s="26" t="n"/>
-      <c r="M5" s="29" t="n"/>
-      <c r="N5" s="26" t="n"/>
-      <c r="O5" s="26" t="n"/>
-      <c r="P5" s="26" t="n"/>
+      <c r="K5" s="31" t="n"/>
+      <c r="L5" s="31" t="n"/>
+      <c r="M5" s="34" t="n"/>
+      <c r="N5" s="31" t="n"/>
+      <c r="O5" s="31" t="n"/>
+      <c r="P5" s="31" t="n"/>
     </row>
     <row r="6" ht="68" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B6" s="30" t="inlineStr">
+      <c r="B6" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C6" s="30" t="inlineStr">
+      <c r="C6" s="35" t="inlineStr">
         <is>
           <t>用户管理</t>
         </is>
       </c>
-      <c r="D6" s="31" t="n"/>
-      <c r="E6" s="32" t="inlineStr">
+      <c r="D6" s="59" t="n"/>
+      <c r="E6" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F6" s="33" t="inlineStr">
+      <c r="F6" s="38" t="inlineStr">
         <is>
           <t>新增用户，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G6" s="33" t="inlineStr">
+      <c r="G6" s="38" t="inlineStr">
         <is>
           <t>1，admin登录
 2，进入“系统管理”-“用户管理”
 3，点击“新增用户”，添加用户信息后保存。</t>
         </is>
       </c>
-      <c r="H6" s="32" t="inlineStr">
+      <c r="H6" s="37" t="inlineStr">
         <is>
           <t>随机新增用户</t>
         </is>
       </c>
-      <c r="I6" s="50" t="inlineStr">
+      <c r="I6" s="60" t="inlineStr">
         <is>
           <t>{'k': "select count(*) as qty from sys_user where user_name='604526'", 'v': 2}{'k': "select count(*) as qty from sys_user where job_num='289078'", 'v': 1}</t>
         </is>
       </c>
-      <c r="J6" s="51" t="inlineStr">
+      <c r="J6" s="61" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K6" s="52" t="inlineStr">
+      <c r="K6" s="62" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L6" s="53" t="inlineStr">
+      <c r="L6" s="63" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1},{"k": "select count(*) as qty from sys_user where user_name='{result['user_name']}'", "v": 2}]</t>
         </is>
       </c>
-      <c r="M6" s="54" t="inlineStr">
+      <c r="M6" s="64" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="N6" s="54" t="inlineStr">
+      <c r="N6" s="64" t="inlineStr">
         <is>
           <t>delete from sys_user where user_name="{result['user_name']}" and job_num="{result['job_num']}"</t>
         </is>
       </c>
-      <c r="O6" s="55" t="inlineStr">
+      <c r="O6" s="65" t="inlineStr">
         <is>
           <t>2026-02-28 13:21:29</t>
         </is>
       </c>
-      <c r="P6" s="56" t="inlineStr">
+      <c r="P6" s="66" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
       </c>
     </row>
     <row r="7" ht="68" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="A7" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B7" s="30" t="inlineStr">
+      <c r="B7" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C7" s="30" t="inlineStr">
+      <c r="C7" s="35" t="inlineStr">
         <is>
           <t>用户管理</t>
         </is>
       </c>
-      <c r="D7" s="31" t="n"/>
-      <c r="E7" s="32" t="inlineStr">
+      <c r="D7" s="59" t="n"/>
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>新增用户，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G7" s="33" t="inlineStr">
+      <c r="G7" s="38" t="inlineStr">
         <is>
           <t>1，admin登录
 2，进入“系统管理”-“用户管理”
 3，点击“新增用户”，添加用户信息后保存。</t>
         </is>
       </c>
-      <c r="H7" s="32" t="inlineStr">
+      <c r="H7" s="37" t="inlineStr">
         <is>
           <t>随机新增用户</t>
         </is>
       </c>
-      <c r="I7" s="57" t="n"/>
-      <c r="J7" s="22" t="n"/>
-      <c r="K7" s="58" t="n"/>
-      <c r="L7" s="59" t="inlineStr">
+      <c r="I7" s="67" t="n"/>
+      <c r="J7" s="52" t="n"/>
+      <c r="K7" s="68" t="n"/>
+      <c r="L7" s="69" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1}]</t>
         </is>
       </c>
-      <c r="M7" s="25" t="inlineStr">
+      <c r="M7" s="30" t="inlineStr">
         <is>
           <t>新增用户_截屏_录屏.py</t>
         </is>
       </c>
-      <c r="N7" s="23" t="n"/>
-      <c r="O7" s="23" t="n"/>
-      <c r="P7" s="60" t="inlineStr">
+      <c r="N7" s="53" t="n"/>
+      <c r="O7" s="53" t="n"/>
+      <c r="P7" s="70" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
       </c>
     </row>
     <row r="8" ht="68" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
+      <c r="A8" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B8" s="30" t="inlineStr">
+      <c r="B8" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C8" s="30" t="inlineStr">
+      <c r="C8" s="35" t="inlineStr">
         <is>
           <t>角色管理</t>
         </is>
       </c>
-      <c r="D8" s="41" t="n"/>
-      <c r="E8" s="32" t="inlineStr">
+      <c r="D8" s="36" t="n"/>
+      <c r="E8" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F8" s="42" t="inlineStr">
+      <c r="F8" s="46" t="inlineStr">
         <is>
           <t>新增角色，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G8" s="43" t="inlineStr">
+      <c r="G8" s="47" t="inlineStr">
         <is>
           <t xml:space="preserve">1，admin登录
 2，进入“系统管理”-“角色管理”
@@ -1891,60 +1921,60 @@
 </t>
         </is>
       </c>
-      <c r="H8" s="32" t="inlineStr">
+      <c r="H8" s="37" t="inlineStr">
         <is>
           <t>随机新增角色</t>
         </is>
       </c>
-      <c r="I8" s="61" t="n"/>
-      <c r="J8" s="22" t="n"/>
-      <c r="K8" s="62" t="inlineStr">
+      <c r="I8" s="71" t="n"/>
+      <c r="J8" s="52" t="n"/>
+      <c r="K8" s="72" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L8" s="63" t="inlineStr">
+      <c r="L8" s="73" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
         </is>
       </c>
-      <c r="M8" s="25" t="inlineStr">
+      <c r="M8" s="30" t="inlineStr">
         <is>
           <t>新增角色.py</t>
         </is>
       </c>
-      <c r="N8" s="22" t="n"/>
-      <c r="O8" s="22" t="n"/>
-      <c r="P8" s="23" t="n"/>
+      <c r="N8" s="52" t="n"/>
+      <c r="O8" s="52" t="n"/>
+      <c r="P8" s="53" t="n"/>
     </row>
     <row r="9" ht="68" customHeight="1">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="A9" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B9" s="30" t="inlineStr">
+      <c r="B9" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C9" s="30" t="inlineStr">
+      <c r="C9" s="35" t="inlineStr">
         <is>
           <t>角色管理</t>
         </is>
       </c>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="32" t="inlineStr">
+      <c r="D9" s="36" t="n"/>
+      <c r="E9" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F9" s="42" t="inlineStr">
+      <c r="F9" s="46" t="inlineStr">
         <is>
           <t>更改角色，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G9" s="43" t="inlineStr">
+      <c r="G9" s="47" t="inlineStr">
         <is>
           <t>1，admin登录
 2，进入“系统管理”-“角色管理”
@@ -1953,92 +1983,92 @@
 5，保存。</t>
         </is>
       </c>
-      <c r="H9" s="30" t="inlineStr">
+      <c r="H9" s="35" t="inlineStr">
         <is>
           <t>编辑908用户</t>
         </is>
       </c>
-      <c r="I9" s="61" t="n"/>
-      <c r="J9" s="22" t="n"/>
-      <c r="K9" s="62" t="n"/>
-      <c r="L9" s="63" t="inlineStr">
+      <c r="I9" s="71" t="n"/>
+      <c r="J9" s="52" t="n"/>
+      <c r="K9" s="72" t="n"/>
+      <c r="L9" s="73" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
         </is>
       </c>
-      <c r="M9" s="25" t="inlineStr">
+      <c r="M9" s="30" t="inlineStr">
         <is>
           <t>编辑角色.py</t>
         </is>
       </c>
-      <c r="N9" s="22" t="n"/>
-      <c r="O9" s="22" t="n"/>
-      <c r="P9" s="23" t="n"/>
+      <c r="N9" s="52" t="n"/>
+      <c r="O9" s="52" t="n"/>
+      <c r="P9" s="53" t="n"/>
     </row>
     <row r="10" ht="68" customHeight="1">
-      <c r="A10" s="30" t="inlineStr">
+      <c r="A10" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B10" s="30" t="inlineStr">
+      <c r="B10" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C10" s="30" t="inlineStr">
+      <c r="C10" s="35" t="inlineStr">
         <is>
           <t>并发管理</t>
         </is>
       </c>
-      <c r="D10" s="31" t="n"/>
-      <c r="E10" s="32" t="n"/>
-      <c r="F10" s="33" t="n"/>
-      <c r="G10" s="33" t="n"/>
-      <c r="H10" s="32" t="n"/>
-      <c r="I10" s="57" t="n"/>
-      <c r="J10" s="22" t="n"/>
-      <c r="K10" s="62" t="inlineStr">
+      <c r="D10" s="59" t="n"/>
+      <c r="E10" s="37" t="n"/>
+      <c r="F10" s="38" t="n"/>
+      <c r="G10" s="38" t="n"/>
+      <c r="H10" s="37" t="n"/>
+      <c r="I10" s="67" t="n"/>
+      <c r="J10" s="52" t="n"/>
+      <c r="K10" s="72" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L10" s="59" t="inlineStr">
+      <c r="L10" s="69" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1},{"k": "select count(*) as qty from sys_user where user_name='{result['user_name']}'", "v": 2}]</t>
         </is>
       </c>
-      <c r="M10" s="25" t="inlineStr">
+      <c r="M10" s="30" t="inlineStr">
         <is>
           <t>{['系统管理','角色管理']:并发.py}</t>
         </is>
       </c>
-      <c r="N10" s="23" t="n"/>
-      <c r="O10" s="23" t="n"/>
-      <c r="P10" s="60" t="inlineStr">
+      <c r="N10" s="53" t="n"/>
+      <c r="O10" s="53" t="n"/>
+      <c r="P10" s="70" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="40" t="n"/>
-      <c r="B11" s="40" t="n"/>
-      <c r="C11" s="40" t="n"/>
-      <c r="D11" s="40" t="n"/>
-      <c r="E11" s="40" t="n"/>
-      <c r="F11" s="40" t="n"/>
-      <c r="G11" s="40" t="n"/>
-      <c r="H11" s="40" t="n"/>
-      <c r="I11" s="40" t="n"/>
-      <c r="J11" s="40" t="n"/>
-      <c r="K11" s="40" t="n"/>
-      <c r="L11" s="40" t="n"/>
-      <c r="M11" s="48" t="n"/>
-      <c r="N11" s="40" t="n"/>
+      <c r="A11" s="45" t="n"/>
+      <c r="B11" s="45" t="n"/>
+      <c r="C11" s="45" t="n"/>
+      <c r="D11" s="45" t="n"/>
+      <c r="E11" s="45" t="n"/>
+      <c r="F11" s="45" t="n"/>
+      <c r="G11" s="45" t="n"/>
+      <c r="H11" s="45" t="n"/>
+      <c r="I11" s="45" t="n"/>
+      <c r="J11" s="45" t="n"/>
+      <c r="K11" s="45" t="n"/>
+      <c r="L11" s="45" t="n"/>
+      <c r="M11" s="57" t="n"/>
+      <c r="N11" s="45" t="n"/>
     </row>
     <row r="12" ht="409.5" customHeight="1">
-      <c r="A12" s="64" t="inlineStr">
+      <c r="A12" s="74" t="inlineStr">
         <is>
           <t>字段说明：
 优先级
@@ -2080,113 +2110,113 @@
 用于airflow工作流调度，暂未空</t>
         </is>
       </c>
-      <c r="H12" s="40" t="n"/>
-      <c r="I12" s="40" t="n"/>
-      <c r="J12" s="40" t="n"/>
-      <c r="K12" s="40" t="n"/>
-      <c r="L12" s="40" t="n"/>
-      <c r="M12" s="48" t="n"/>
-      <c r="N12" s="40" t="n"/>
+      <c r="H12" s="45" t="n"/>
+      <c r="I12" s="45" t="n"/>
+      <c r="J12" s="45" t="n"/>
+      <c r="K12" s="45" t="n"/>
+      <c r="L12" s="45" t="n"/>
+      <c r="M12" s="57" t="n"/>
+      <c r="N12" s="45" t="n"/>
     </row>
     <row r="13">
-      <c r="H13" s="40" t="n"/>
-      <c r="I13" s="40" t="n"/>
-      <c r="J13" s="40" t="n"/>
-      <c r="K13" s="40" t="n"/>
-      <c r="L13" s="40" t="n"/>
-      <c r="M13" s="48" t="n"/>
-      <c r="N13" s="40" t="n"/>
+      <c r="H13" s="45" t="n"/>
+      <c r="I13" s="45" t="n"/>
+      <c r="J13" s="45" t="n"/>
+      <c r="K13" s="45" t="n"/>
+      <c r="L13" s="45" t="n"/>
+      <c r="M13" s="57" t="n"/>
+      <c r="N13" s="45" t="n"/>
     </row>
     <row r="14">
-      <c r="H14" s="40" t="n"/>
-      <c r="I14" s="40" t="n"/>
-      <c r="J14" s="40" t="n"/>
-      <c r="K14" s="40" t="n"/>
-      <c r="L14" s="40" t="n"/>
-      <c r="M14" s="48" t="n"/>
-      <c r="N14" s="40" t="n"/>
+      <c r="H14" s="45" t="n"/>
+      <c r="I14" s="45" t="n"/>
+      <c r="J14" s="45" t="n"/>
+      <c r="K14" s="45" t="n"/>
+      <c r="L14" s="45" t="n"/>
+      <c r="M14" s="57" t="n"/>
+      <c r="N14" s="45" t="n"/>
     </row>
     <row r="15">
-      <c r="H15" s="40" t="n"/>
-      <c r="I15" s="40" t="n"/>
-      <c r="J15" s="40" t="n"/>
-      <c r="K15" s="40" t="n"/>
-      <c r="L15" s="40" t="n"/>
-      <c r="M15" s="48" t="n"/>
-      <c r="N15" s="40" t="n"/>
+      <c r="H15" s="45" t="n"/>
+      <c r="I15" s="45" t="n"/>
+      <c r="J15" s="45" t="n"/>
+      <c r="K15" s="45" t="n"/>
+      <c r="L15" s="45" t="n"/>
+      <c r="M15" s="57" t="n"/>
+      <c r="N15" s="45" t="n"/>
     </row>
     <row r="16">
-      <c r="H16" s="40" t="n"/>
-      <c r="I16" s="40" t="n"/>
-      <c r="J16" s="40" t="n"/>
-      <c r="K16" s="40" t="n"/>
-      <c r="L16" s="40" t="n"/>
-      <c r="M16" s="48" t="n"/>
-      <c r="N16" s="40" t="n"/>
+      <c r="H16" s="45" t="n"/>
+      <c r="I16" s="45" t="n"/>
+      <c r="J16" s="45" t="n"/>
+      <c r="K16" s="45" t="n"/>
+      <c r="L16" s="45" t="n"/>
+      <c r="M16" s="57" t="n"/>
+      <c r="N16" s="45" t="n"/>
     </row>
     <row r="17">
-      <c r="H17" s="40" t="n"/>
-      <c r="I17" s="40" t="n"/>
-      <c r="J17" s="40" t="n"/>
-      <c r="K17" s="40" t="n"/>
-      <c r="L17" s="40" t="n"/>
-      <c r="M17" s="48" t="n"/>
-      <c r="N17" s="40" t="n"/>
+      <c r="H17" s="45" t="n"/>
+      <c r="I17" s="45" t="n"/>
+      <c r="J17" s="45" t="n"/>
+      <c r="K17" s="45" t="n"/>
+      <c r="L17" s="45" t="n"/>
+      <c r="M17" s="57" t="n"/>
+      <c r="N17" s="45" t="n"/>
     </row>
     <row r="18">
-      <c r="H18" s="40" t="n"/>
-      <c r="I18" s="40" t="n"/>
-      <c r="J18" s="40" t="n"/>
-      <c r="K18" s="40" t="n"/>
-      <c r="L18" s="40" t="n"/>
-      <c r="M18" s="48" t="n"/>
-      <c r="N18" s="40" t="n"/>
+      <c r="H18" s="45" t="n"/>
+      <c r="I18" s="45" t="n"/>
+      <c r="J18" s="45" t="n"/>
+      <c r="K18" s="45" t="n"/>
+      <c r="L18" s="45" t="n"/>
+      <c r="M18" s="57" t="n"/>
+      <c r="N18" s="45" t="n"/>
     </row>
     <row r="19">
-      <c r="H19" s="40" t="n"/>
-      <c r="I19" s="40" t="n"/>
-      <c r="J19" s="40" t="n"/>
-      <c r="K19" s="40" t="n"/>
-      <c r="L19" s="40" t="n"/>
-      <c r="M19" s="48" t="n"/>
-      <c r="N19" s="40" t="n"/>
+      <c r="H19" s="45" t="n"/>
+      <c r="I19" s="45" t="n"/>
+      <c r="J19" s="45" t="n"/>
+      <c r="K19" s="45" t="n"/>
+      <c r="L19" s="45" t="n"/>
+      <c r="M19" s="57" t="n"/>
+      <c r="N19" s="45" t="n"/>
     </row>
     <row r="20">
-      <c r="H20" s="40" t="n"/>
-      <c r="I20" s="40" t="n"/>
-      <c r="J20" s="40" t="n"/>
-      <c r="K20" s="40" t="n"/>
-      <c r="L20" s="40" t="n"/>
-      <c r="M20" s="48" t="n"/>
-      <c r="N20" s="40" t="n"/>
+      <c r="H20" s="45" t="n"/>
+      <c r="I20" s="45" t="n"/>
+      <c r="J20" s="45" t="n"/>
+      <c r="K20" s="45" t="n"/>
+      <c r="L20" s="45" t="n"/>
+      <c r="M20" s="57" t="n"/>
+      <c r="N20" s="45" t="n"/>
     </row>
     <row r="21">
-      <c r="H21" s="40" t="n"/>
-      <c r="I21" s="40" t="n"/>
-      <c r="J21" s="40" t="n"/>
-      <c r="K21" s="40" t="n"/>
-      <c r="L21" s="40" t="n"/>
-      <c r="M21" s="48" t="n"/>
-      <c r="N21" s="40" t="n"/>
+      <c r="H21" s="45" t="n"/>
+      <c r="I21" s="45" t="n"/>
+      <c r="J21" s="45" t="n"/>
+      <c r="K21" s="45" t="n"/>
+      <c r="L21" s="45" t="n"/>
+      <c r="M21" s="57" t="n"/>
+      <c r="N21" s="45" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="65" t="n"/>
-      <c r="B22" s="65" t="n"/>
-      <c r="C22" s="65" t="n"/>
-      <c r="D22" s="65" t="n"/>
-      <c r="E22" s="65" t="n"/>
-      <c r="F22" s="65" t="n"/>
-      <c r="G22" s="65" t="n"/>
-      <c r="H22" s="65" t="n"/>
-      <c r="I22" s="65" t="n"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="K22" s="65" t="n"/>
-      <c r="L22" s="65" t="n"/>
-      <c r="M22" s="66" t="n"/>
-      <c r="N22" s="65" t="n"/>
+      <c r="A22" s="75" t="n"/>
+      <c r="B22" s="75" t="n"/>
+      <c r="C22" s="75" t="n"/>
+      <c r="D22" s="75" t="n"/>
+      <c r="E22" s="75" t="n"/>
+      <c r="F22" s="75" t="n"/>
+      <c r="G22" s="75" t="n"/>
+      <c r="H22" s="75" t="n"/>
+      <c r="I22" s="75" t="n"/>
+      <c r="J22" s="75" t="n"/>
+      <c r="K22" s="75" t="n"/>
+      <c r="L22" s="75" t="n"/>
+      <c r="M22" s="76" t="n"/>
+      <c r="N22" s="75" t="n"/>
     </row>
     <row r="23" ht="64.59999999999999" customHeight="1">
-      <c r="A23" s="64" t="inlineStr">
+      <c r="A23" s="74" t="inlineStr">
         <is>
           <t>自动化执行流程：
 1，判断“是否自动化”，仅对标记为 “是” 的用例执行自动化流程。
@@ -2198,68 +2228,68 @@
 5，根据断言结果，自动更新用例执行状态。</t>
         </is>
       </c>
-      <c r="H23" s="40" t="n"/>
-      <c r="I23" s="40" t="n"/>
-      <c r="J23" s="40" t="n"/>
-      <c r="K23" s="40" t="n"/>
-      <c r="L23" s="40" t="n"/>
-      <c r="M23" s="48" t="n"/>
-      <c r="N23" s="40" t="n"/>
+      <c r="H23" s="45" t="n"/>
+      <c r="I23" s="45" t="n"/>
+      <c r="J23" s="45" t="n"/>
+      <c r="K23" s="45" t="n"/>
+      <c r="L23" s="45" t="n"/>
+      <c r="M23" s="57" t="n"/>
+      <c r="N23" s="45" t="n"/>
     </row>
     <row r="24">
-      <c r="H24" s="40" t="n"/>
-      <c r="I24" s="40" t="n"/>
-      <c r="J24" s="40" t="n"/>
-      <c r="K24" s="40" t="n"/>
-      <c r="L24" s="40" t="n"/>
-      <c r="M24" s="48" t="n"/>
-      <c r="N24" s="40" t="n"/>
+      <c r="H24" s="45" t="n"/>
+      <c r="I24" s="45" t="n"/>
+      <c r="J24" s="45" t="n"/>
+      <c r="K24" s="45" t="n"/>
+      <c r="L24" s="45" t="n"/>
+      <c r="M24" s="57" t="n"/>
+      <c r="N24" s="45" t="n"/>
     </row>
     <row r="25">
-      <c r="H25" s="40" t="n"/>
-      <c r="I25" s="40" t="n"/>
-      <c r="J25" s="40" t="n"/>
-      <c r="K25" s="40" t="n"/>
-      <c r="L25" s="40" t="n"/>
-      <c r="M25" s="48" t="n"/>
-      <c r="N25" s="40" t="n"/>
+      <c r="H25" s="45" t="n"/>
+      <c r="I25" s="45" t="n"/>
+      <c r="J25" s="45" t="n"/>
+      <c r="K25" s="45" t="n"/>
+      <c r="L25" s="45" t="n"/>
+      <c r="M25" s="57" t="n"/>
+      <c r="N25" s="45" t="n"/>
     </row>
     <row r="26">
-      <c r="H26" s="40" t="n"/>
-      <c r="I26" s="40" t="n"/>
-      <c r="J26" s="40" t="n"/>
-      <c r="K26" s="40" t="n"/>
-      <c r="L26" s="40" t="n"/>
-      <c r="M26" s="48" t="n"/>
-      <c r="N26" s="40" t="n"/>
+      <c r="H26" s="45" t="n"/>
+      <c r="I26" s="45" t="n"/>
+      <c r="J26" s="45" t="n"/>
+      <c r="K26" s="45" t="n"/>
+      <c r="L26" s="45" t="n"/>
+      <c r="M26" s="57" t="n"/>
+      <c r="N26" s="45" t="n"/>
     </row>
     <row r="27">
-      <c r="H27" s="40" t="n"/>
-      <c r="I27" s="67" t="n"/>
-      <c r="J27" s="67" t="n"/>
-      <c r="K27" s="67" t="n"/>
-      <c r="L27" s="67" t="n"/>
-      <c r="M27" s="68" t="n"/>
-      <c r="N27" s="67" t="n"/>
+      <c r="H27" s="45" t="n"/>
+      <c r="I27" s="77" t="n"/>
+      <c r="J27" s="77" t="n"/>
+      <c r="K27" s="77" t="n"/>
+      <c r="L27" s="77" t="n"/>
+      <c r="M27" s="78" t="n"/>
+      <c r="N27" s="77" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="65" t="n"/>
-      <c r="B28" s="65" t="n"/>
-      <c r="C28" s="65" t="n"/>
-      <c r="D28" s="65" t="n"/>
-      <c r="E28" s="65" t="n"/>
-      <c r="F28" s="65" t="n"/>
-      <c r="G28" s="65" t="n"/>
-      <c r="H28" s="65" t="n"/>
-      <c r="I28" s="65" t="n"/>
-      <c r="J28" s="65" t="n"/>
-      <c r="K28" s="65" t="n"/>
-      <c r="L28" s="65" t="n"/>
-      <c r="M28" s="66" t="n"/>
-      <c r="N28" s="65" t="n"/>
+      <c r="A28" s="75" t="n"/>
+      <c r="B28" s="75" t="n"/>
+      <c r="C28" s="75" t="n"/>
+      <c r="D28" s="75" t="n"/>
+      <c r="E28" s="75" t="n"/>
+      <c r="F28" s="75" t="n"/>
+      <c r="G28" s="75" t="n"/>
+      <c r="H28" s="75" t="n"/>
+      <c r="I28" s="75" t="n"/>
+      <c r="J28" s="75" t="n"/>
+      <c r="K28" s="75" t="n"/>
+      <c r="L28" s="75" t="n"/>
+      <c r="M28" s="76" t="n"/>
+      <c r="N28" s="75" t="n"/>
     </row>
     <row r="29" ht="409.5" customHeight="1">
-      <c r="A29" s="64" t="inlineStr">
+      <c r="A29" s="74" t="inlineStr">
         <is>
           <t>前置条件与自动化校验使用说明：
 以下以自动化创建用户场景为例，说明前置条件的两种编写方式。
@@ -2302,130 +2332,130 @@
 4，暂不支持多层嵌套与复杂逻辑组合。</t>
         </is>
       </c>
-      <c r="H29" s="40" t="n"/>
-      <c r="I29" s="67" t="n"/>
-      <c r="J29" s="67" t="n"/>
-      <c r="K29" s="67" t="n"/>
-      <c r="L29" s="67" t="n"/>
-      <c r="M29" s="68" t="n"/>
-      <c r="N29" s="67" t="n"/>
+      <c r="H29" s="45" t="n"/>
+      <c r="I29" s="77" t="n"/>
+      <c r="J29" s="77" t="n"/>
+      <c r="K29" s="77" t="n"/>
+      <c r="L29" s="77" t="n"/>
+      <c r="M29" s="78" t="n"/>
+      <c r="N29" s="77" t="n"/>
     </row>
     <row r="30">
-      <c r="H30" s="40" t="n"/>
-      <c r="I30" s="67" t="n"/>
-      <c r="J30" s="67" t="n"/>
-      <c r="K30" s="67" t="n"/>
-      <c r="L30" s="67" t="n"/>
-      <c r="M30" s="68" t="n"/>
-      <c r="N30" s="67" t="n"/>
+      <c r="H30" s="45" t="n"/>
+      <c r="I30" s="77" t="n"/>
+      <c r="J30" s="77" t="n"/>
+      <c r="K30" s="77" t="n"/>
+      <c r="L30" s="77" t="n"/>
+      <c r="M30" s="78" t="n"/>
+      <c r="N30" s="77" t="n"/>
     </row>
     <row r="31">
-      <c r="H31" s="40" t="n"/>
-      <c r="I31" s="67" t="n"/>
-      <c r="J31" s="67" t="n"/>
-      <c r="K31" s="67" t="n"/>
-      <c r="L31" s="67" t="n"/>
-      <c r="M31" s="68" t="n"/>
-      <c r="N31" s="67" t="n"/>
+      <c r="H31" s="45" t="n"/>
+      <c r="I31" s="77" t="n"/>
+      <c r="J31" s="77" t="n"/>
+      <c r="K31" s="77" t="n"/>
+      <c r="L31" s="77" t="n"/>
+      <c r="M31" s="78" t="n"/>
+      <c r="N31" s="77" t="n"/>
     </row>
     <row r="32">
-      <c r="H32" s="40" t="n"/>
-      <c r="I32" s="67" t="n"/>
-      <c r="J32" s="67" t="n"/>
-      <c r="K32" s="67" t="n"/>
-      <c r="L32" s="67" t="n"/>
-      <c r="M32" s="68" t="n"/>
-      <c r="N32" s="67" t="n"/>
+      <c r="H32" s="45" t="n"/>
+      <c r="I32" s="77" t="n"/>
+      <c r="J32" s="77" t="n"/>
+      <c r="K32" s="77" t="n"/>
+      <c r="L32" s="77" t="n"/>
+      <c r="M32" s="78" t="n"/>
+      <c r="N32" s="77" t="n"/>
     </row>
     <row r="33">
-      <c r="H33" s="40" t="n"/>
-      <c r="I33" s="67" t="n"/>
-      <c r="J33" s="67" t="n"/>
-      <c r="K33" s="67" t="n"/>
-      <c r="L33" s="67" t="n"/>
-      <c r="M33" s="68" t="n"/>
-      <c r="N33" s="67" t="n"/>
+      <c r="H33" s="45" t="n"/>
+      <c r="I33" s="77" t="n"/>
+      <c r="J33" s="77" t="n"/>
+      <c r="K33" s="77" t="n"/>
+      <c r="L33" s="77" t="n"/>
+      <c r="M33" s="78" t="n"/>
+      <c r="N33" s="77" t="n"/>
     </row>
     <row r="34">
-      <c r="H34" s="40" t="n"/>
-      <c r="I34" s="67" t="n"/>
-      <c r="J34" s="67" t="n"/>
-      <c r="K34" s="67" t="n"/>
-      <c r="L34" s="67" t="n"/>
-      <c r="M34" s="68" t="n"/>
-      <c r="N34" s="67" t="n"/>
+      <c r="H34" s="45" t="n"/>
+      <c r="I34" s="77" t="n"/>
+      <c r="J34" s="77" t="n"/>
+      <c r="K34" s="77" t="n"/>
+      <c r="L34" s="77" t="n"/>
+      <c r="M34" s="78" t="n"/>
+      <c r="N34" s="77" t="n"/>
     </row>
     <row r="35">
-      <c r="H35" s="40" t="n"/>
-      <c r="I35" s="67" t="n"/>
-      <c r="J35" s="67" t="n"/>
-      <c r="K35" s="67" t="n"/>
-      <c r="L35" s="67" t="n"/>
-      <c r="M35" s="68" t="n"/>
-      <c r="N35" s="67" t="n"/>
+      <c r="H35" s="45" t="n"/>
+      <c r="I35" s="77" t="n"/>
+      <c r="J35" s="77" t="n"/>
+      <c r="K35" s="77" t="n"/>
+      <c r="L35" s="77" t="n"/>
+      <c r="M35" s="78" t="n"/>
+      <c r="N35" s="77" t="n"/>
     </row>
     <row r="36">
-      <c r="H36" s="40" t="n"/>
-      <c r="I36" s="40" t="n"/>
-      <c r="J36" s="40" t="n"/>
-      <c r="K36" s="40" t="n"/>
-      <c r="L36" s="40" t="n"/>
-      <c r="M36" s="48" t="n"/>
-      <c r="N36" s="40" t="n"/>
+      <c r="H36" s="45" t="n"/>
+      <c r="I36" s="45" t="n"/>
+      <c r="J36" s="45" t="n"/>
+      <c r="K36" s="45" t="n"/>
+      <c r="L36" s="45" t="n"/>
+      <c r="M36" s="57" t="n"/>
+      <c r="N36" s="45" t="n"/>
     </row>
     <row r="37">
-      <c r="H37" s="40" t="n"/>
-      <c r="I37" s="40" t="n"/>
-      <c r="J37" s="40" t="n"/>
-      <c r="K37" s="40" t="n"/>
-      <c r="L37" s="40" t="n"/>
-      <c r="M37" s="48" t="n"/>
-      <c r="N37" s="40" t="n"/>
+      <c r="H37" s="45" t="n"/>
+      <c r="I37" s="45" t="n"/>
+      <c r="J37" s="45" t="n"/>
+      <c r="K37" s="45" t="n"/>
+      <c r="L37" s="45" t="n"/>
+      <c r="M37" s="57" t="n"/>
+      <c r="N37" s="45" t="n"/>
     </row>
     <row r="38">
-      <c r="H38" s="40" t="n"/>
-      <c r="I38" s="40" t="n"/>
-      <c r="J38" s="40" t="n"/>
-      <c r="K38" s="40" t="n"/>
-      <c r="L38" s="40" t="n"/>
-      <c r="M38" s="48" t="n"/>
-      <c r="N38" s="40" t="n"/>
+      <c r="H38" s="45" t="n"/>
+      <c r="I38" s="45" t="n"/>
+      <c r="J38" s="45" t="n"/>
+      <c r="K38" s="45" t="n"/>
+      <c r="L38" s="45" t="n"/>
+      <c r="M38" s="57" t="n"/>
+      <c r="N38" s="45" t="n"/>
     </row>
     <row r="39">
-      <c r="H39" s="40" t="n"/>
-      <c r="I39" s="40" t="n"/>
-      <c r="J39" s="40" t="n"/>
-      <c r="K39" s="40" t="n"/>
-      <c r="L39" s="40" t="n"/>
-      <c r="M39" s="48" t="n"/>
-      <c r="N39" s="40" t="n"/>
+      <c r="H39" s="45" t="n"/>
+      <c r="I39" s="45" t="n"/>
+      <c r="J39" s="45" t="n"/>
+      <c r="K39" s="45" t="n"/>
+      <c r="L39" s="45" t="n"/>
+      <c r="M39" s="57" t="n"/>
+      <c r="N39" s="45" t="n"/>
     </row>
     <row r="40">
-      <c r="H40" s="40" t="n"/>
-      <c r="I40" s="40" t="n"/>
-      <c r="J40" s="40" t="n"/>
-      <c r="K40" s="40" t="n"/>
-      <c r="L40" s="40" t="n"/>
-      <c r="M40" s="48" t="n"/>
-      <c r="N40" s="40" t="n"/>
+      <c r="H40" s="45" t="n"/>
+      <c r="I40" s="45" t="n"/>
+      <c r="J40" s="45" t="n"/>
+      <c r="K40" s="45" t="n"/>
+      <c r="L40" s="45" t="n"/>
+      <c r="M40" s="57" t="n"/>
+      <c r="N40" s="45" t="n"/>
     </row>
     <row r="41">
-      <c r="H41" s="40" t="n"/>
-      <c r="I41" s="40" t="n"/>
-      <c r="J41" s="40" t="n"/>
-      <c r="K41" s="40" t="n"/>
-      <c r="L41" s="40" t="n"/>
-      <c r="M41" s="48" t="n"/>
-      <c r="N41" s="40" t="n"/>
+      <c r="H41" s="45" t="n"/>
+      <c r="I41" s="45" t="n"/>
+      <c r="J41" s="45" t="n"/>
+      <c r="K41" s="45" t="n"/>
+      <c r="L41" s="45" t="n"/>
+      <c r="M41" s="57" t="n"/>
+      <c r="N41" s="45" t="n"/>
     </row>
     <row r="42">
-      <c r="H42" s="40" t="n"/>
-      <c r="I42" s="40" t="n"/>
-      <c r="J42" s="40" t="n"/>
-      <c r="K42" s="40" t="n"/>
-      <c r="L42" s="40" t="n"/>
-      <c r="M42" s="48" t="n"/>
-      <c r="N42" s="40" t="n"/>
+      <c r="H42" s="45" t="n"/>
+      <c r="I42" s="45" t="n"/>
+      <c r="J42" s="45" t="n"/>
+      <c r="K42" s="45" t="n"/>
+      <c r="L42" s="45" t="n"/>
+      <c r="M42" s="57" t="n"/>
+      <c r="N42" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2443,10 +2473,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelCol="0"/>
@@ -2454,427 +2484,371 @@
     <col width="10.1160714285714" customWidth="1" style="2" min="1" max="1"/>
     <col width="12.7946428571429" customWidth="1" style="2" min="2" max="2"/>
     <col width="12.1964285714286" customWidth="1" style="2" min="3" max="3"/>
-    <col width="18.3035714285714" customWidth="1" style="2" min="4" max="4"/>
+    <col width="18.3035714285714" customWidth="1" style="3" min="4" max="4"/>
     <col width="13.3928571428571" customWidth="1" style="2" min="5" max="5"/>
-    <col width="23.0714285714286" customWidth="1" style="3" min="6" max="6"/>
-    <col width="30.8035714285714" customWidth="1" style="3" min="7" max="7"/>
+    <col width="23.0714285714286" customWidth="1" style="4" min="6" max="6"/>
+    <col width="30.8035714285714" customWidth="1" style="4" min="7" max="7"/>
     <col width="18.2946428571429" customWidth="1" style="2" min="8" max="8"/>
     <col width="17.7053571428571" customWidth="1" style="2" min="9" max="9"/>
     <col width="11.75" customWidth="1" style="2" min="10" max="10"/>
     <col width="13.2410714285714" customWidth="1" style="2" min="11" max="11"/>
     <col width="34.6696428571429" customWidth="1" style="2" min="12" max="12"/>
-    <col width="26.9285714285714" customWidth="1" style="2" min="13" max="13"/>
-    <col width="20.2321428571429" customWidth="1" style="2" min="14" max="15"/>
+    <col width="21.2767857142857" customWidth="1" style="2" min="13" max="13"/>
+    <col width="24.8392857142857" customWidth="1" style="2" min="14" max="14"/>
+    <col width="20.2321428571429" customWidth="1" style="5" min="15" max="15"/>
     <col width="25.7410714285714" customWidth="1" style="2" min="16" max="16"/>
     <col width="9.142857142857141" customWidth="1" style="2" min="17" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>手工：需求评审：2025-12-19，用例完成：2025-12-21，用例评审：2025-12-26，执行数量：，测试完成率：，状态：[通过12，失败2，暂停0，搁置3]，测试报告：https://www.baidu.com</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="6" t="n"/>
-      <c r="D1" s="6" t="n"/>
-      <c r="E1" s="6" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="6" t="n"/>
-      <c r="I1" s="8" t="n"/>
-      <c r="J1" s="9" t="n"/>
-      <c r="K1" s="6" t="n"/>
-      <c r="L1" s="6" t="n"/>
-      <c r="M1" s="6" t="n"/>
-      <c r="N1" s="6" t="n"/>
-      <c r="O1" s="6" t="n"/>
-      <c r="P1" s="10" t="n"/>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="8" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="n"/>
+      <c r="I1" s="11" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="8" t="n"/>
+      <c r="L1" s="8" t="n"/>
+      <c r="M1" s="8" t="n"/>
+      <c r="N1" s="8" t="n"/>
+      <c r="O1" s="13" t="inlineStr">
+        <is>
+          <t>总计:0,通过:0,失败:0</t>
+        </is>
+      </c>
+      <c r="P1" s="14" t="inlineStr">
+        <is>
+          <t>2026-02-28 18:01:59</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="22" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>自动：用例完成：2025-12-21，用例评审：2025-12-26，执行数量：，测试完成率：，状态：[通过12，失败2，暂停0，搁置3]</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="11" t="n"/>
-      <c r="E2" s="12" t="n"/>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="14" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
-      <c r="M2" s="14" t="n"/>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="14" t="n"/>
-      <c r="P2" s="10" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="15" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="17" t="n"/>
+      <c r="H2" s="18" t="n"/>
+      <c r="I2" s="18" t="n"/>
+      <c r="J2" s="19" t="n"/>
+      <c r="K2" s="18" t="n"/>
+      <c r="L2" s="18" t="n"/>
+      <c r="M2" s="18" t="n"/>
+      <c r="N2" s="18" t="n"/>
+      <c r="O2" s="20" t="n"/>
+      <c r="P2" s="14" t="n"/>
     </row>
     <row r="3" ht="34" customFormat="1" customHeight="1" s="1">
-      <c r="A3" s="16" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>优先级</t>
         </is>
       </c>
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
       </c>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>子模块</t>
         </is>
       </c>
-      <c r="D3" s="17" t="inlineStr">
+      <c r="D3" s="22" t="inlineStr">
         <is>
           <t>前置条件</t>
         </is>
       </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>用例类型</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="23" t="inlineStr">
         <is>
           <t>用例检查点</t>
         </is>
       </c>
-      <c r="G3" s="19" t="inlineStr">
+      <c r="G3" s="24" t="inlineStr">
         <is>
           <t>测试步骤</t>
         </is>
       </c>
-      <c r="H3" s="20" t="inlineStr">
+      <c r="H3" s="25" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="I3" s="20" t="inlineStr">
+      <c r="I3" s="25" t="inlineStr">
         <is>
           <t>web实测结果</t>
         </is>
       </c>
-      <c r="J3" s="21" t="inlineStr">
+      <c r="J3" s="26" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="K3" s="21" t="inlineStr">
+      <c r="K3" s="26" t="inlineStr">
         <is>
           <t>是否自动化</t>
         </is>
       </c>
-      <c r="L3" s="21" t="inlineStr">
+      <c r="L3" s="26" t="inlineStr">
         <is>
           <t>自动化校验</t>
         </is>
       </c>
-      <c r="M3" s="21" t="inlineStr">
+      <c r="M3" s="26" t="inlineStr">
         <is>
           <t>自动化脚本(.py)</t>
         </is>
       </c>
-      <c r="N3" s="21" t="inlineStr">
+      <c r="N3" s="26" t="inlineStr">
         <is>
           <t>自动化后置</t>
         </is>
       </c>
-      <c r="O3" s="21" t="inlineStr">
+      <c r="O3" s="22" t="inlineStr">
         <is>
           <t>完成时间</t>
         </is>
       </c>
-      <c r="P3" s="20" t="inlineStr">
+      <c r="P3" s="25" t="inlineStr">
         <is>
           <t>备注</t>
         </is>
       </c>
     </row>
     <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="22" t="inlineStr">
+      <c r="A4" s="52" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C4" s="22" t="n"/>
-      <c r="D4" s="23" t="inlineStr">
+      <c r="C4" s="52" t="n"/>
+      <c r="D4" s="53" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E4" s="23" t="inlineStr">
+      <c r="E4" s="53" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F4" s="24" t="inlineStr">
+      <c r="F4" s="29" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G4" s="25" t="inlineStr">
+      <c r="G4" s="30" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H4" s="22" t="inlineStr">
+      <c r="H4" s="52" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I4" s="22" t="n"/>
-      <c r="J4" s="22" t="inlineStr">
+      <c r="I4" s="52" t="n"/>
+      <c r="J4" s="52" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K4" s="22" t="n"/>
-      <c r="L4" s="22" t="n"/>
-      <c r="M4" s="22" t="n"/>
-      <c r="N4" s="22" t="n"/>
-      <c r="O4" s="22" t="n"/>
-      <c r="P4" s="22" t="n"/>
+      <c r="K4" s="52" t="n"/>
+      <c r="L4" s="52" t="n"/>
+      <c r="M4" s="52" t="n"/>
+      <c r="N4" s="52" t="n"/>
+      <c r="O4" s="53" t="n"/>
+      <c r="P4" s="52" t="n"/>
     </row>
     <row r="5" ht="51" customHeight="1">
-      <c r="A5" s="26" t="inlineStr">
+      <c r="A5" s="31" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C5" s="26" t="n"/>
-      <c r="D5" s="27" t="inlineStr">
+      <c r="C5" s="31" t="n"/>
+      <c r="D5" s="32" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E5" s="27" t="inlineStr">
+      <c r="E5" s="32" t="inlineStr">
         <is>
           <t>反向</t>
         </is>
       </c>
-      <c r="F5" s="28" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>创建用户</t>
         </is>
       </c>
-      <c r="G5" s="29" t="inlineStr">
+      <c r="G5" s="34" t="inlineStr">
         <is>
           <t>1，
 2，
 3，</t>
         </is>
       </c>
-      <c r="H5" s="26" t="inlineStr">
+      <c r="H5" s="31" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="32" t="inlineStr">
         <is>
           <t>创建2个用户，没有创建成功</t>
         </is>
       </c>
-      <c r="J5" s="26" t="inlineStr">
+      <c r="J5" s="31" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K5" s="26" t="n"/>
-      <c r="L5" s="26" t="n"/>
-      <c r="M5" s="26" t="n"/>
-      <c r="N5" s="26" t="n"/>
-      <c r="O5" s="26" t="n"/>
-      <c r="P5" s="26" t="n"/>
+      <c r="K5" s="31" t="n"/>
+      <c r="L5" s="31" t="n"/>
+      <c r="M5" s="31" t="n"/>
+      <c r="N5" s="31" t="n"/>
+      <c r="O5" s="32" t="n"/>
+      <c r="P5" s="31" t="n"/>
     </row>
     <row r="6" ht="86" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B6" s="30" t="inlineStr">
+      <c r="B6" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C6" s="30" t="inlineStr">
+      <c r="C6" s="35" t="inlineStr">
         <is>
           <t>用户管理</t>
         </is>
       </c>
-      <c r="D6" s="31" t="n"/>
-      <c r="E6" s="32" t="inlineStr">
+      <c r="D6" s="36" t="n"/>
+      <c r="E6" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F6" s="33" t="inlineStr">
+      <c r="F6" s="38" t="inlineStr">
         <is>
           <t>新增用户，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G6" s="33" t="inlineStr">
+      <c r="G6" s="38" t="inlineStr">
         <is>
           <t>1，admin登录
 2，进入“系统管理”-“用户管理”
 3，点击“新增用户”，添加用户信息后保存。</t>
         </is>
       </c>
-      <c r="H6" s="32" t="inlineStr">
+      <c r="H6" s="37" t="inlineStr">
         <is>
           <t>随机新增用户</t>
         </is>
       </c>
-      <c r="I6" s="32" t="inlineStr">
-        <is>
-          <t>v=0</t>
-        </is>
-      </c>
-      <c r="J6" s="30" t="inlineStr">
+      <c r="I6" s="37" t="n"/>
+      <c r="J6" s="35" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K6" s="34" t="inlineStr">
+      <c r="K6" s="39" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L6" s="35" t="inlineStr">
+      <c r="L6" s="40" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1}]</t>
         </is>
       </c>
-      <c r="M6" s="36" t="inlineStr">
+      <c r="M6" s="41" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="N6" s="37" t="inlineStr">
+      <c r="N6" s="42" t="inlineStr">
         <is>
           <t>[["delete from sys_user where user_name='{result['user_name']}' and job_num='{result['job_num']}'"]]</t>
         </is>
       </c>
-      <c r="O6" s="38" t="inlineStr">
-        <is>
-          <t>2026-02-28 16:02:05</t>
-        </is>
-      </c>
-      <c r="P6" s="39" t="inlineStr">
+      <c r="O6" s="50" t="inlineStr">
+        <is>
+          <t>2026-02-28 16:15:18</t>
+        </is>
+      </c>
+      <c r="P6" s="44" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
       </c>
-      <c r="Q6" s="40" t="n"/>
-      <c r="R6" s="40" t="n"/>
-    </row>
-    <row r="7" ht="86" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="Q6" s="45" t="n"/>
+      <c r="R6" s="45" t="n"/>
+    </row>
+    <row r="7" ht="68" customHeight="1">
+      <c r="A7" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B7" s="30" t="inlineStr">
+      <c r="B7" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C7" s="30" t="inlineStr">
-        <is>
-          <t>用户管理</t>
-        </is>
-      </c>
-      <c r="D7" s="31" t="n"/>
-      <c r="E7" s="32" t="inlineStr">
+      <c r="C7" s="35" t="inlineStr">
+        <is>
+          <t>角色管理</t>
+        </is>
+      </c>
+      <c r="D7" s="36" t="n"/>
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F7" s="33" t="inlineStr">
-        <is>
-          <t>新增用户，后台数据库里查询是否存在</t>
-        </is>
-      </c>
-      <c r="G7" s="33" t="inlineStr">
-        <is>
-          <t>1，admin登录
-2，进入“系统管理”-“用户管理”
-3，点击“新增用户”，添加用户信息后保存。</t>
-        </is>
-      </c>
-      <c r="H7" s="32" t="inlineStr">
-        <is>
-          <t>随机新增用户</t>
-        </is>
-      </c>
-      <c r="I7" s="32" t="n"/>
-      <c r="J7" s="30" t="n"/>
-      <c r="L7" s="35" t="inlineStr">
-        <is>
-          <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1}]</t>
-        </is>
-      </c>
-      <c r="M7" s="36" t="inlineStr">
-        <is>
-          <t>新增用户_截屏_录屏.py</t>
-        </is>
-      </c>
-      <c r="N7" s="38" t="n"/>
-      <c r="O7" s="38" t="n"/>
-      <c r="P7" s="39" t="inlineStr">
-        <is>
-          <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
-        </is>
-      </c>
-      <c r="Q7" s="40" t="n"/>
-      <c r="R7" s="40" t="n"/>
-    </row>
-    <row r="8" ht="68" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
-        <is>
-          <t>中</t>
-        </is>
-      </c>
-      <c r="B8" s="30" t="inlineStr">
-        <is>
-          <t>系统管理</t>
-        </is>
-      </c>
-      <c r="C8" s="30" t="inlineStr">
-        <is>
-          <t>角色管理</t>
-        </is>
-      </c>
-      <c r="D8" s="41" t="n"/>
-      <c r="E8" s="32" t="inlineStr">
-        <is>
-          <t>正向</t>
-        </is>
-      </c>
-      <c r="F8" s="42" t="inlineStr">
+      <c r="F7" s="46" t="inlineStr">
         <is>
           <t>新增角色，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G8" s="43" t="inlineStr">
+      <c r="G7" s="47" t="inlineStr">
         <is>
           <t xml:space="preserve">1，admin登录
 2，进入“系统管理”-“角色管理”
@@ -2882,60 +2856,72 @@
 </t>
         </is>
       </c>
-      <c r="H8" s="32" t="inlineStr">
+      <c r="H7" s="37" t="inlineStr">
         <is>
           <t>随机新增角色</t>
         </is>
       </c>
-      <c r="I8" s="30" t="n"/>
-      <c r="J8" s="30" t="n"/>
-      <c r="K8" s="34" t="inlineStr">
+      <c r="I7" s="35" t="n"/>
+      <c r="J7" s="35" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="K7" s="39" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L8" s="44" t="inlineStr">
+      <c r="L7" s="48" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
         </is>
       </c>
-      <c r="M8" s="36" t="inlineStr">
-        <is>
-          <t>新增角色.py</t>
-        </is>
-      </c>
-      <c r="N8" s="36" t="n"/>
-      <c r="O8" s="36" t="n"/>
-      <c r="P8" s="45" t="n"/>
-    </row>
-    <row r="9" ht="68" customHeight="1">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="M7" s="49" t="inlineStr">
+        <is>
+          <t>新增角色</t>
+        </is>
+      </c>
+      <c r="N7" s="42" t="inlineStr">
+        <is>
+          <t>[["delete from sys_role where role_name='{result['role_name']}' and role_sort='{result['role_sort']}'"]]</t>
+        </is>
+      </c>
+      <c r="O7" s="50" t="inlineStr">
+        <is>
+          <t>2026-02-28 17:08:01</t>
+        </is>
+      </c>
+      <c r="P7" s="50" t="n"/>
+    </row>
+    <row r="8" ht="68" customHeight="1">
+      <c r="A8" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B9" s="30" t="inlineStr">
+      <c r="B8" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C9" s="30" t="inlineStr">
+      <c r="C8" s="35" t="inlineStr">
         <is>
           <t>角色管理</t>
         </is>
       </c>
-      <c r="D9" s="41" t="n"/>
-      <c r="E9" s="32" t="inlineStr">
+      <c r="D8" s="36" t="n"/>
+      <c r="E8" s="37" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
       </c>
-      <c r="F9" s="42" t="inlineStr">
+      <c r="F8" s="46" t="inlineStr">
         <is>
           <t>更改角色，后台数据库里查询是否存在</t>
         </is>
       </c>
-      <c r="G9" s="43" t="inlineStr">
+      <c r="G8" s="47" t="inlineStr">
         <is>
           <t>1，admin登录
 2，进入“系统管理”-“角色管理”
@@ -2944,75 +2930,79 @@
 5，保存。</t>
         </is>
       </c>
-      <c r="H9" s="30" t="inlineStr">
+      <c r="H8" s="35" t="inlineStr">
         <is>
           <t>编辑908用户</t>
         </is>
       </c>
-      <c r="I9" s="30" t="n"/>
-      <c r="J9" s="30" t="n"/>
-      <c r="K9" s="34" t="n"/>
-      <c r="L9" s="44" t="inlineStr">
+      <c r="I8" s="35" t="n"/>
+      <c r="J8" s="35" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="K8" s="39" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="L8" s="48" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
         </is>
       </c>
-      <c r="M9" s="36" t="inlineStr">
-        <is>
-          <t>编辑角色.py</t>
-        </is>
-      </c>
-      <c r="N9" s="36" t="n"/>
-      <c r="O9" s="36" t="n"/>
-      <c r="P9" s="45" t="n"/>
-    </row>
-    <row r="10" ht="86" customHeight="1">
-      <c r="A10" s="30" t="inlineStr">
+      <c r="M8" s="71" t="inlineStr">
+        <is>
+          <t>编辑角色</t>
+        </is>
+      </c>
+      <c r="N8" s="52" t="n"/>
+      <c r="O8" s="53" t="inlineStr">
+        <is>
+          <t>2026-02-28 17:08:06</t>
+        </is>
+      </c>
+      <c r="P8" s="53" t="n"/>
+    </row>
+    <row r="9" ht="86" customHeight="1">
+      <c r="A9" s="35" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B10" s="30" t="inlineStr">
+      <c r="B9" s="35" t="inlineStr">
         <is>
           <t>系统管理</t>
         </is>
       </c>
-      <c r="C10" s="30" t="inlineStr">
-        <is>
-          <t>并发管理</t>
-        </is>
-      </c>
-      <c r="D10" s="31" t="n"/>
-      <c r="E10" s="32" t="n"/>
-      <c r="F10" s="33" t="n"/>
-      <c r="G10" s="33" t="n"/>
-      <c r="H10" s="32" t="n"/>
-      <c r="I10" s="32" t="n"/>
-      <c r="J10" s="30" t="n"/>
-      <c r="K10" s="34" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="L10" s="35" t="inlineStr">
-        <is>
-          <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1},{"k": "select count(*) as qty from sys_user where user_name='{result['user_name']}'", "v": 2}]</t>
-        </is>
-      </c>
-      <c r="M10" s="36" t="inlineStr">
-        <is>
-          <t>{['系统管理','角色管理']:并发.py}</t>
-        </is>
-      </c>
-      <c r="N10" s="38" t="n"/>
-      <c r="O10" s="38" t="n"/>
-      <c r="P10" s="39" t="inlineStr">
-        <is>
-          <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
-        </is>
-      </c>
-      <c r="Q10" s="40" t="n"/>
-      <c r="R10" s="40" t="n"/>
+      <c r="C9" s="35" t="inlineStr">
+        <is>
+          <t>角色管理</t>
+        </is>
+      </c>
+      <c r="D9" s="36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E9" s="37" t="n"/>
+      <c r="F9" s="38" t="n"/>
+      <c r="G9" s="38" t="n"/>
+      <c r="H9" s="37" t="n"/>
+      <c r="I9" s="37" t="n"/>
+      <c r="J9" s="35" t="n"/>
+      <c r="K9" s="39" t="inlineStr">
+        <is>
+          <t>并发</t>
+        </is>
+      </c>
+      <c r="L9" s="40" t="n"/>
+      <c r="M9" s="71" t="n"/>
+      <c r="N9" s="53" t="n"/>
+      <c r="O9" s="53" t="n"/>
+      <c r="P9" s="70" t="n"/>
+      <c r="Q9" s="45" t="n"/>
+      <c r="R9" s="45" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/instance/zyjk/CDRD/web/config/testcase.xlsx
+++ b/instance/zyjk/CDRD/web/config/testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="16760" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26860" windowHeight="12860" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readme" sheetId="1" state="visible" r:id="rId1"/>
@@ -822,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -965,17 +965,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1022,12 +1013,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,7 +1492,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="0"/>
   <cols>
-    <col width="20.3839285714286" customWidth="1" style="55" min="13" max="13"/>
+    <col width="20.3839285714286" customWidth="1" style="52" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1527,7 +1512,7 @@
       <c r="J1" s="12" t="n"/>
       <c r="K1" s="8" t="n"/>
       <c r="L1" s="8" t="n"/>
-      <c r="M1" s="56" t="n"/>
+      <c r="M1" s="53" t="n"/>
       <c r="N1" s="8" t="n"/>
       <c r="O1" s="8" t="n"/>
       <c r="P1" s="14" t="n"/>
@@ -1549,7 +1534,7 @@
       <c r="J2" s="19" t="n"/>
       <c r="K2" s="18" t="n"/>
       <c r="L2" s="18" t="n"/>
-      <c r="M2" s="57" t="n"/>
+      <c r="M2" s="54" t="n"/>
       <c r="N2" s="18" t="n"/>
       <c r="O2" s="18" t="n"/>
       <c r="P2" s="14" t="n"/>
@@ -1615,7 +1600,7 @@
           <t>自动化校验</t>
         </is>
       </c>
-      <c r="M3" s="58" t="inlineStr">
+      <c r="M3" s="55" t="inlineStr">
         <is>
           <t>自动化脚本(.py)</t>
         </is>
@@ -1637,24 +1622,24 @@
       </c>
     </row>
     <row r="4" ht="68" customHeight="1">
-      <c r="A4" s="52" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B4" s="52" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C4" s="52" t="n"/>
-      <c r="D4" s="53" t="inlineStr">
+      <c r="C4" s="27" t="n"/>
+      <c r="D4" s="28" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E4" s="53" t="inlineStr">
+      <c r="E4" s="28" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
@@ -1671,23 +1656,23 @@
 3，</t>
         </is>
       </c>
-      <c r="H4" s="52" t="inlineStr">
+      <c r="H4" s="27" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I4" s="52" t="n"/>
-      <c r="J4" s="52" t="inlineStr">
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K4" s="52" t="n"/>
-      <c r="L4" s="52" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
       <c r="M4" s="30" t="n"/>
-      <c r="N4" s="52" t="n"/>
-      <c r="O4" s="52" t="n"/>
-      <c r="P4" s="52" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
     </row>
     <row r="5" ht="68" customHeight="1">
       <c r="A5" s="31" t="inlineStr">
@@ -1762,7 +1747,7 @@
           <t>用户管理</t>
         </is>
       </c>
-      <c r="D6" s="59" t="n"/>
+      <c r="D6" s="56" t="n"/>
       <c r="E6" s="37" t="inlineStr">
         <is>
           <t>正向</t>
@@ -1785,42 +1770,42 @@
           <t>随机新增用户</t>
         </is>
       </c>
-      <c r="I6" s="60" t="inlineStr">
+      <c r="I6" s="57" t="inlineStr">
         <is>
           <t>{'k': "select count(*) as qty from sys_user where user_name='604526'", 'v': 2}{'k': "select count(*) as qty from sys_user where job_num='289078'", 'v': 1}</t>
         </is>
       </c>
-      <c r="J6" s="61" t="inlineStr">
+      <c r="J6" s="58" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
       </c>
-      <c r="K6" s="62" t="inlineStr">
+      <c r="K6" s="59" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L6" s="63" t="inlineStr">
+      <c r="L6" s="60" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1},{"k": "select count(*) as qty from sys_user where user_name='{result['user_name']}'", "v": 2}]</t>
         </is>
       </c>
-      <c r="M6" s="64" t="inlineStr">
+      <c r="M6" s="61" t="inlineStr">
         <is>
           <t>新增用户</t>
         </is>
       </c>
-      <c r="N6" s="64" t="inlineStr">
+      <c r="N6" s="61" t="inlineStr">
         <is>
           <t>delete from sys_user where user_name="{result['user_name']}" and job_num="{result['job_num']}"</t>
         </is>
       </c>
-      <c r="O6" s="65" t="inlineStr">
+      <c r="O6" s="62" t="inlineStr">
         <is>
           <t>2026-02-28 13:21:29</t>
         </is>
       </c>
-      <c r="P6" s="66" t="inlineStr">
+      <c r="P6" s="63" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
@@ -1842,7 +1827,7 @@
           <t>用户管理</t>
         </is>
       </c>
-      <c r="D7" s="59" t="n"/>
+      <c r="D7" s="56" t="n"/>
       <c r="E7" s="37" t="inlineStr">
         <is>
           <t>正向</t>
@@ -1865,10 +1850,10 @@
           <t>随机新增用户</t>
         </is>
       </c>
-      <c r="I7" s="67" t="n"/>
-      <c r="J7" s="52" t="n"/>
-      <c r="K7" s="68" t="n"/>
-      <c r="L7" s="69" t="inlineStr">
+      <c r="I7" s="64" t="n"/>
+      <c r="J7" s="27" t="n"/>
+      <c r="K7" s="65" t="n"/>
+      <c r="L7" s="66" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1}]</t>
         </is>
@@ -1878,9 +1863,9 @@
           <t>新增用户_截屏_录屏.py</t>
         </is>
       </c>
-      <c r="N7" s="53" t="n"/>
-      <c r="O7" s="53" t="n"/>
-      <c r="P7" s="70" t="inlineStr">
+      <c r="N7" s="28" t="n"/>
+      <c r="O7" s="28" t="n"/>
+      <c r="P7" s="51" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
@@ -1926,14 +1911,14 @@
           <t>随机新增角色</t>
         </is>
       </c>
-      <c r="I8" s="71" t="n"/>
-      <c r="J8" s="52" t="n"/>
-      <c r="K8" s="72" t="inlineStr">
+      <c r="I8" s="50" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="67" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L8" s="73" t="inlineStr">
+      <c r="L8" s="68" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
         </is>
@@ -1943,9 +1928,9 @@
           <t>新增角色.py</t>
         </is>
       </c>
-      <c r="N8" s="52" t="n"/>
-      <c r="O8" s="52" t="n"/>
-      <c r="P8" s="53" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="28" t="n"/>
     </row>
     <row r="9" ht="68" customHeight="1">
       <c r="A9" s="35" t="inlineStr">
@@ -1988,10 +1973,10 @@
           <t>编辑908用户</t>
         </is>
       </c>
-      <c r="I9" s="71" t="n"/>
-      <c r="J9" s="52" t="n"/>
-      <c r="K9" s="72" t="n"/>
-      <c r="L9" s="73" t="inlineStr">
+      <c r="I9" s="50" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="67" t="n"/>
+      <c r="L9" s="68" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
         </is>
@@ -2001,9 +1986,9 @@
           <t>编辑角色.py</t>
         </is>
       </c>
-      <c r="N9" s="52" t="n"/>
-      <c r="O9" s="52" t="n"/>
-      <c r="P9" s="53" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="28" t="n"/>
     </row>
     <row r="10" ht="68" customHeight="1">
       <c r="A10" s="35" t="inlineStr">
@@ -2021,19 +2006,19 @@
           <t>并发管理</t>
         </is>
       </c>
-      <c r="D10" s="59" t="n"/>
+      <c r="D10" s="56" t="n"/>
       <c r="E10" s="37" t="n"/>
       <c r="F10" s="38" t="n"/>
       <c r="G10" s="38" t="n"/>
       <c r="H10" s="37" t="n"/>
-      <c r="I10" s="67" t="n"/>
-      <c r="J10" s="52" t="n"/>
-      <c r="K10" s="72" t="inlineStr">
+      <c r="I10" s="64" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="67" t="inlineStr">
         <is>
           <t>是</t>
         </is>
       </c>
-      <c r="L10" s="69" t="inlineStr">
+      <c r="L10" s="66" t="inlineStr">
         <is>
           <t>[{"k": "select count(*) as qty from sys_user where job_num='{result['job_num']}'", "v": 1},{"k": "select count(*) as qty from sys_user where user_name='{result['user_name']}'", "v": 2}]</t>
         </is>
@@ -2043,9 +2028,9 @@
           <t>{['系统管理','角色管理']:并发.py}</t>
         </is>
       </c>
-      <c r="N10" s="53" t="n"/>
-      <c r="O10" s="53" t="n"/>
-      <c r="P10" s="70" t="inlineStr">
+      <c r="N10" s="28" t="n"/>
+      <c r="O10" s="28" t="n"/>
+      <c r="P10" s="51" t="inlineStr">
         <is>
           <t>随机生成：姓名、手机号、邮箱、账号、工号、性别、备注</t>
         </is>
@@ -2064,11 +2049,11 @@
       <c r="J11" s="45" t="n"/>
       <c r="K11" s="45" t="n"/>
       <c r="L11" s="45" t="n"/>
-      <c r="M11" s="57" t="n"/>
+      <c r="M11" s="54" t="n"/>
       <c r="N11" s="45" t="n"/>
     </row>
     <row r="12" ht="409.5" customHeight="1">
-      <c r="A12" s="74" t="inlineStr">
+      <c r="A12" s="69" t="inlineStr">
         <is>
           <t>字段说明：
 优先级
@@ -2115,7 +2100,7 @@
       <c r="J12" s="45" t="n"/>
       <c r="K12" s="45" t="n"/>
       <c r="L12" s="45" t="n"/>
-      <c r="M12" s="57" t="n"/>
+      <c r="M12" s="54" t="n"/>
       <c r="N12" s="45" t="n"/>
     </row>
     <row r="13">
@@ -2124,7 +2109,7 @@
       <c r="J13" s="45" t="n"/>
       <c r="K13" s="45" t="n"/>
       <c r="L13" s="45" t="n"/>
-      <c r="M13" s="57" t="n"/>
+      <c r="M13" s="54" t="n"/>
       <c r="N13" s="45" t="n"/>
     </row>
     <row r="14">
@@ -2133,7 +2118,7 @@
       <c r="J14" s="45" t="n"/>
       <c r="K14" s="45" t="n"/>
       <c r="L14" s="45" t="n"/>
-      <c r="M14" s="57" t="n"/>
+      <c r="M14" s="54" t="n"/>
       <c r="N14" s="45" t="n"/>
     </row>
     <row r="15">
@@ -2142,7 +2127,7 @@
       <c r="J15" s="45" t="n"/>
       <c r="K15" s="45" t="n"/>
       <c r="L15" s="45" t="n"/>
-      <c r="M15" s="57" t="n"/>
+      <c r="M15" s="54" t="n"/>
       <c r="N15" s="45" t="n"/>
     </row>
     <row r="16">
@@ -2151,7 +2136,7 @@
       <c r="J16" s="45" t="n"/>
       <c r="K16" s="45" t="n"/>
       <c r="L16" s="45" t="n"/>
-      <c r="M16" s="57" t="n"/>
+      <c r="M16" s="54" t="n"/>
       <c r="N16" s="45" t="n"/>
     </row>
     <row r="17">
@@ -2160,7 +2145,7 @@
       <c r="J17" s="45" t="n"/>
       <c r="K17" s="45" t="n"/>
       <c r="L17" s="45" t="n"/>
-      <c r="M17" s="57" t="n"/>
+      <c r="M17" s="54" t="n"/>
       <c r="N17" s="45" t="n"/>
     </row>
     <row r="18">
@@ -2169,7 +2154,7 @@
       <c r="J18" s="45" t="n"/>
       <c r="K18" s="45" t="n"/>
       <c r="L18" s="45" t="n"/>
-      <c r="M18" s="57" t="n"/>
+      <c r="M18" s="54" t="n"/>
       <c r="N18" s="45" t="n"/>
     </row>
     <row r="19">
@@ -2178,7 +2163,7 @@
       <c r="J19" s="45" t="n"/>
       <c r="K19" s="45" t="n"/>
       <c r="L19" s="45" t="n"/>
-      <c r="M19" s="57" t="n"/>
+      <c r="M19" s="54" t="n"/>
       <c r="N19" s="45" t="n"/>
     </row>
     <row r="20">
@@ -2187,7 +2172,7 @@
       <c r="J20" s="45" t="n"/>
       <c r="K20" s="45" t="n"/>
       <c r="L20" s="45" t="n"/>
-      <c r="M20" s="57" t="n"/>
+      <c r="M20" s="54" t="n"/>
       <c r="N20" s="45" t="n"/>
     </row>
     <row r="21">
@@ -2196,27 +2181,27 @@
       <c r="J21" s="45" t="n"/>
       <c r="K21" s="45" t="n"/>
       <c r="L21" s="45" t="n"/>
-      <c r="M21" s="57" t="n"/>
+      <c r="M21" s="54" t="n"/>
       <c r="N21" s="45" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="75" t="n"/>
-      <c r="B22" s="75" t="n"/>
-      <c r="C22" s="75" t="n"/>
-      <c r="D22" s="75" t="n"/>
-      <c r="E22" s="75" t="n"/>
-      <c r="F22" s="75" t="n"/>
-      <c r="G22" s="75" t="n"/>
-      <c r="H22" s="75" t="n"/>
-      <c r="I22" s="75" t="n"/>
-      <c r="J22" s="75" t="n"/>
-      <c r="K22" s="75" t="n"/>
-      <c r="L22" s="75" t="n"/>
-      <c r="M22" s="76" t="n"/>
-      <c r="N22" s="75" t="n"/>
+      <c r="A22" s="70" t="n"/>
+      <c r="B22" s="70" t="n"/>
+      <c r="C22" s="70" t="n"/>
+      <c r="D22" s="70" t="n"/>
+      <c r="E22" s="70" t="n"/>
+      <c r="F22" s="70" t="n"/>
+      <c r="G22" s="70" t="n"/>
+      <c r="H22" s="70" t="n"/>
+      <c r="I22" s="70" t="n"/>
+      <c r="J22" s="70" t="n"/>
+      <c r="K22" s="70" t="n"/>
+      <c r="L22" s="70" t="n"/>
+      <c r="M22" s="71" t="n"/>
+      <c r="N22" s="70" t="n"/>
     </row>
     <row r="23" ht="64.59999999999999" customHeight="1">
-      <c r="A23" s="74" t="inlineStr">
+      <c r="A23" s="69" t="inlineStr">
         <is>
           <t>自动化执行流程：
 1，判断“是否自动化”，仅对标记为 “是” 的用例执行自动化流程。
@@ -2233,7 +2218,7 @@
       <c r="J23" s="45" t="n"/>
       <c r="K23" s="45" t="n"/>
       <c r="L23" s="45" t="n"/>
-      <c r="M23" s="57" t="n"/>
+      <c r="M23" s="54" t="n"/>
       <c r="N23" s="45" t="n"/>
     </row>
     <row r="24">
@@ -2242,7 +2227,7 @@
       <c r="J24" s="45" t="n"/>
       <c r="K24" s="45" t="n"/>
       <c r="L24" s="45" t="n"/>
-      <c r="M24" s="57" t="n"/>
+      <c r="M24" s="54" t="n"/>
       <c r="N24" s="45" t="n"/>
     </row>
     <row r="25">
@@ -2251,7 +2236,7 @@
       <c r="J25" s="45" t="n"/>
       <c r="K25" s="45" t="n"/>
       <c r="L25" s="45" t="n"/>
-      <c r="M25" s="57" t="n"/>
+      <c r="M25" s="54" t="n"/>
       <c r="N25" s="45" t="n"/>
     </row>
     <row r="26">
@@ -2260,36 +2245,36 @@
       <c r="J26" s="45" t="n"/>
       <c r="K26" s="45" t="n"/>
       <c r="L26" s="45" t="n"/>
-      <c r="M26" s="57" t="n"/>
+      <c r="M26" s="54" t="n"/>
       <c r="N26" s="45" t="n"/>
     </row>
     <row r="27">
       <c r="H27" s="45" t="n"/>
-      <c r="I27" s="77" t="n"/>
-      <c r="J27" s="77" t="n"/>
-      <c r="K27" s="77" t="n"/>
-      <c r="L27" s="77" t="n"/>
-      <c r="M27" s="78" t="n"/>
-      <c r="N27" s="77" t="n"/>
+      <c r="I27" s="72" t="n"/>
+      <c r="J27" s="72" t="n"/>
+      <c r="K27" s="72" t="n"/>
+      <c r="L27" s="72" t="n"/>
+      <c r="M27" s="73" t="n"/>
+      <c r="N27" s="72" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="75" t="n"/>
-      <c r="B28" s="75" t="n"/>
-      <c r="C28" s="75" t="n"/>
-      <c r="D28" s="75" t="n"/>
-      <c r="E28" s="75" t="n"/>
-      <c r="F28" s="75" t="n"/>
-      <c r="G28" s="75" t="n"/>
-      <c r="H28" s="75" t="n"/>
-      <c r="I28" s="75" t="n"/>
-      <c r="J28" s="75" t="n"/>
-      <c r="K28" s="75" t="n"/>
-      <c r="L28" s="75" t="n"/>
-      <c r="M28" s="76" t="n"/>
-      <c r="N28" s="75" t="n"/>
+      <c r="A28" s="70" t="n"/>
+      <c r="B28" s="70" t="n"/>
+      <c r="C28" s="70" t="n"/>
+      <c r="D28" s="70" t="n"/>
+      <c r="E28" s="70" t="n"/>
+      <c r="F28" s="70" t="n"/>
+      <c r="G28" s="70" t="n"/>
+      <c r="H28" s="70" t="n"/>
+      <c r="I28" s="70" t="n"/>
+      <c r="J28" s="70" t="n"/>
+      <c r="K28" s="70" t="n"/>
+      <c r="L28" s="70" t="n"/>
+      <c r="M28" s="71" t="n"/>
+      <c r="N28" s="70" t="n"/>
     </row>
     <row r="29" ht="409.5" customHeight="1">
-      <c r="A29" s="74" t="inlineStr">
+      <c r="A29" s="69" t="inlineStr">
         <is>
           <t>前置条件与自动化校验使用说明：
 以下以自动化创建用户场景为例，说明前置条件的两种编写方式。
@@ -2333,66 +2318,66 @@
         </is>
       </c>
       <c r="H29" s="45" t="n"/>
-      <c r="I29" s="77" t="n"/>
-      <c r="J29" s="77" t="n"/>
-      <c r="K29" s="77" t="n"/>
-      <c r="L29" s="77" t="n"/>
-      <c r="M29" s="78" t="n"/>
-      <c r="N29" s="77" t="n"/>
+      <c r="I29" s="72" t="n"/>
+      <c r="J29" s="72" t="n"/>
+      <c r="K29" s="72" t="n"/>
+      <c r="L29" s="72" t="n"/>
+      <c r="M29" s="73" t="n"/>
+      <c r="N29" s="72" t="n"/>
     </row>
     <row r="30">
       <c r="H30" s="45" t="n"/>
-      <c r="I30" s="77" t="n"/>
-      <c r="J30" s="77" t="n"/>
-      <c r="K30" s="77" t="n"/>
-      <c r="L30" s="77" t="n"/>
-      <c r="M30" s="78" t="n"/>
-      <c r="N30" s="77" t="n"/>
+      <c r="I30" s="72" t="n"/>
+      <c r="J30" s="72" t="n"/>
+      <c r="K30" s="72" t="n"/>
+      <c r="L30" s="72" t="n"/>
+      <c r="M30" s="73" t="n"/>
+      <c r="N30" s="72" t="n"/>
     </row>
     <row r="31">
       <c r="H31" s="45" t="n"/>
-      <c r="I31" s="77" t="n"/>
-      <c r="J31" s="77" t="n"/>
-      <c r="K31" s="77" t="n"/>
-      <c r="L31" s="77" t="n"/>
-      <c r="M31" s="78" t="n"/>
-      <c r="N31" s="77" t="n"/>
+      <c r="I31" s="72" t="n"/>
+      <c r="J31" s="72" t="n"/>
+      <c r="K31" s="72" t="n"/>
+      <c r="L31" s="72" t="n"/>
+      <c r="M31" s="73" t="n"/>
+      <c r="N31" s="72" t="n"/>
     </row>
     <row r="32">
       <c r="H32" s="45" t="n"/>
-      <c r="I32" s="77" t="n"/>
-      <c r="J32" s="77" t="n"/>
-      <c r="K32" s="77" t="n"/>
-      <c r="L32" s="77" t="n"/>
-      <c r="M32" s="78" t="n"/>
-      <c r="N32" s="77" t="n"/>
+      <c r="I32" s="72" t="n"/>
+      <c r="J32" s="72" t="n"/>
+      <c r="K32" s="72" t="n"/>
+      <c r="L32" s="72" t="n"/>
+      <c r="M32" s="73" t="n"/>
+      <c r="N32" s="72" t="n"/>
     </row>
     <row r="33">
       <c r="H33" s="45" t="n"/>
-      <c r="I33" s="77" t="n"/>
-      <c r="J33" s="77" t="n"/>
-      <c r="K33" s="77" t="n"/>
-      <c r="L33" s="77" t="n"/>
-      <c r="M33" s="78" t="n"/>
-      <c r="N33" s="77" t="n"/>
+      <c r="I33" s="72" t="n"/>
+      <c r="J33" s="72" t="n"/>
+      <c r="K33" s="72" t="n"/>
+      <c r="L33" s="72" t="n"/>
+      <c r="M33" s="73" t="n"/>
+      <c r="N33" s="72" t="n"/>
     </row>
     <row r="34">
       <c r="H34" s="45" t="n"/>
-      <c r="I34" s="77" t="n"/>
-      <c r="J34" s="77" t="n"/>
-      <c r="K34" s="77" t="n"/>
-      <c r="L34" s="77" t="n"/>
-      <c r="M34" s="78" t="n"/>
-      <c r="N34" s="77" t="n"/>
+      <c r="I34" s="72" t="n"/>
+      <c r="J34" s="72" t="n"/>
+      <c r="K34" s="72" t="n"/>
+      <c r="L34" s="72" t="n"/>
+      <c r="M34" s="73" t="n"/>
+      <c r="N34" s="72" t="n"/>
     </row>
     <row r="35">
       <c r="H35" s="45" t="n"/>
-      <c r="I35" s="77" t="n"/>
-      <c r="J35" s="77" t="n"/>
-      <c r="K35" s="77" t="n"/>
-      <c r="L35" s="77" t="n"/>
-      <c r="M35" s="78" t="n"/>
-      <c r="N35" s="77" t="n"/>
+      <c r="I35" s="72" t="n"/>
+      <c r="J35" s="72" t="n"/>
+      <c r="K35" s="72" t="n"/>
+      <c r="L35" s="72" t="n"/>
+      <c r="M35" s="73" t="n"/>
+      <c r="N35" s="72" t="n"/>
     </row>
     <row r="36">
       <c r="H36" s="45" t="n"/>
@@ -2400,7 +2385,7 @@
       <c r="J36" s="45" t="n"/>
       <c r="K36" s="45" t="n"/>
       <c r="L36" s="45" t="n"/>
-      <c r="M36" s="57" t="n"/>
+      <c r="M36" s="54" t="n"/>
       <c r="N36" s="45" t="n"/>
     </row>
     <row r="37">
@@ -2409,7 +2394,7 @@
       <c r="J37" s="45" t="n"/>
       <c r="K37" s="45" t="n"/>
       <c r="L37" s="45" t="n"/>
-      <c r="M37" s="57" t="n"/>
+      <c r="M37" s="54" t="n"/>
       <c r="N37" s="45" t="n"/>
     </row>
     <row r="38">
@@ -2418,7 +2403,7 @@
       <c r="J38" s="45" t="n"/>
       <c r="K38" s="45" t="n"/>
       <c r="L38" s="45" t="n"/>
-      <c r="M38" s="57" t="n"/>
+      <c r="M38" s="54" t="n"/>
       <c r="N38" s="45" t="n"/>
     </row>
     <row r="39">
@@ -2427,7 +2412,7 @@
       <c r="J39" s="45" t="n"/>
       <c r="K39" s="45" t="n"/>
       <c r="L39" s="45" t="n"/>
-      <c r="M39" s="57" t="n"/>
+      <c r="M39" s="54" t="n"/>
       <c r="N39" s="45" t="n"/>
     </row>
     <row r="40">
@@ -2436,7 +2421,7 @@
       <c r="J40" s="45" t="n"/>
       <c r="K40" s="45" t="n"/>
       <c r="L40" s="45" t="n"/>
-      <c r="M40" s="57" t="n"/>
+      <c r="M40" s="54" t="n"/>
       <c r="N40" s="45" t="n"/>
     </row>
     <row r="41">
@@ -2445,7 +2430,7 @@
       <c r="J41" s="45" t="n"/>
       <c r="K41" s="45" t="n"/>
       <c r="L41" s="45" t="n"/>
-      <c r="M41" s="57" t="n"/>
+      <c r="M41" s="54" t="n"/>
       <c r="N41" s="45" t="n"/>
     </row>
     <row r="42">
@@ -2454,7 +2439,7 @@
       <c r="J42" s="45" t="n"/>
       <c r="K42" s="45" t="n"/>
       <c r="L42" s="45" t="n"/>
-      <c r="M42" s="57" t="n"/>
+      <c r="M42" s="54" t="n"/>
       <c r="N42" s="45" t="n"/>
     </row>
   </sheetData>
@@ -2473,10 +2458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelCol="0"/>
@@ -2521,12 +2506,12 @@
       <c r="N1" s="8" t="n"/>
       <c r="O1" s="13" t="inlineStr">
         <is>
-          <t>总计:0,通过:0,失败:0</t>
+          <t>总计:3,通过:3,失败:0</t>
         </is>
       </c>
       <c r="P1" s="14" t="inlineStr">
         <is>
-          <t>2026-02-28 18:01:59</t>
+          <t>2026-02-28 22:28:13</t>
         </is>
       </c>
     </row>
@@ -2634,24 +2619,24 @@
       </c>
     </row>
     <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="52" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>中</t>
         </is>
       </c>
-      <c r="B4" s="52" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <is>
           <t>用户模块</t>
         </is>
       </c>
-      <c r="C4" s="52" t="n"/>
-      <c r="D4" s="53" t="inlineStr">
+      <c r="C4" s="27" t="n"/>
+      <c r="D4" s="28" t="inlineStr">
         <is>
           <t>1，用户登录
 2，设置机构</t>
         </is>
       </c>
-      <c r="E4" s="53" t="inlineStr">
+      <c r="E4" s="28" t="inlineStr">
         <is>
           <t>正向</t>
         </is>
@@ -2668,23 +2653,23 @@
 3，</t>
         </is>
       </c>
-      <c r="H4" s="52" t="inlineStr">
+      <c r="H4" s="27" t="inlineStr">
         <is>
           <t>创建一个用户</t>
         </is>
       </c>
-      <c r="I4" s="52" t="n"/>
-      <c r="J4" s="52" t="inlineStr">
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
-      <c r="K4" s="52" t="n"/>
-      <c r="L4" s="52" t="n"/>
-      <c r="M4" s="52" t="n"/>
-      <c r="N4" s="52" t="n"/>
-      <c r="O4" s="53" t="n"/>
-      <c r="P4" s="52" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="28" t="n"/>
+      <c r="P4" s="27" t="n"/>
     </row>
     <row r="5" ht="51" customHeight="1">
       <c r="A5" s="31" t="inlineStr">
@@ -2808,7 +2793,7 @@
           <t>[["delete from sys_user where user_name='{result['user_name']}' and job_num='{result['job_num']}'"]]</t>
         </is>
       </c>
-      <c r="O6" s="50" t="inlineStr">
+      <c r="O6" s="43" t="inlineStr">
         <is>
           <t>2026-02-28 16:15:18</t>
         </is>
@@ -2882,17 +2867,18 @@
           <t>新增角色</t>
         </is>
       </c>
-      <c r="N7" s="42" t="inlineStr">
+      <c r="N7" s="42" t="n"/>
+      <c r="O7" s="43" t="inlineStr">
+        <is>
+          <t>2026-02-28 22:56:48</t>
+        </is>
+      </c>
+      <c r="P7" s="43" t="n"/>
+      <c r="Q7" s="42" t="inlineStr">
         <is>
           <t>[["delete from sys_role where role_name='{result['role_name']}' and role_sort='{result['role_sort']}'"]]</t>
         </is>
       </c>
-      <c r="O7" s="50" t="inlineStr">
-        <is>
-          <t>2026-02-28 17:08:01</t>
-        </is>
-      </c>
-      <c r="P7" s="50" t="n"/>
     </row>
     <row r="8" ht="68" customHeight="1">
       <c r="A8" s="35" t="inlineStr">
@@ -2951,18 +2937,18 @@
           <t>[{"k": "select count(*) as qty from sys_role where role_name='{result['role_name']}'", "v": 1}]</t>
         </is>
       </c>
-      <c r="M8" s="71" t="inlineStr">
+      <c r="M8" s="50" t="inlineStr">
         <is>
           <t>编辑角色</t>
         </is>
       </c>
-      <c r="N8" s="52" t="n"/>
-      <c r="O8" s="53" t="inlineStr">
-        <is>
-          <t>2026-02-28 17:08:06</t>
-        </is>
-      </c>
-      <c r="P8" s="53" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="28" t="inlineStr">
+        <is>
+          <t>2026-02-28 22:56:48</t>
+        </is>
+      </c>
+      <c r="P8" s="28" t="n"/>
     </row>
     <row r="9" ht="86" customHeight="1">
       <c r="A9" s="35" t="inlineStr">
@@ -2997,12 +2983,82 @@
         </is>
       </c>
       <c r="L9" s="40" t="n"/>
-      <c r="M9" s="71" t="n"/>
-      <c r="N9" s="53" t="n"/>
-      <c r="O9" s="53" t="n"/>
-      <c r="P9" s="70" t="n"/>
+      <c r="M9" s="50" t="n"/>
+      <c r="N9" s="28" t="n"/>
+      <c r="O9" s="28" t="n"/>
+      <c r="P9" s="51" t="n"/>
       <c r="Q9" s="45" t="n"/>
       <c r="R9" s="45" t="n"/>
+    </row>
+    <row r="10" ht="68" customHeight="1">
+      <c r="A10" s="35" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
+      </c>
+      <c r="B10" s="35" t="inlineStr">
+        <is>
+          <t>系统管理</t>
+        </is>
+      </c>
+      <c r="C10" s="35" t="inlineStr">
+        <is>
+          <t>角色管理</t>
+        </is>
+      </c>
+      <c r="D10" s="36" t="n"/>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t>正向</t>
+        </is>
+      </c>
+      <c r="F10" s="46" t="inlineStr">
+        <is>
+          <t>更改角色，后台数据库里查询是否存在</t>
+        </is>
+      </c>
+      <c r="G10" s="47" t="inlineStr">
+        <is>
+          <t>1，admin登录
+2，进入“系统管理”-“角色管理”
+3，点击“908”角色的编辑
+4，修改角色名称为“100”
+5，保存。</t>
+        </is>
+      </c>
+      <c r="H10" s="35" t="inlineStr">
+        <is>
+          <t>编辑222用户</t>
+        </is>
+      </c>
+      <c r="I10" s="35" t="n"/>
+      <c r="J10" s="35" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="K10" s="39" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="L10" s="48" t="inlineStr">
+        <is>
+          <t>[{"k": "select count(*) as qty from sys_role where remark='{result['remark']}'", "v": 1}]</t>
+        </is>
+      </c>
+      <c r="M10" s="50" t="inlineStr">
+        <is>
+          <t>编辑222角色</t>
+        </is>
+      </c>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="28" t="inlineStr">
+        <is>
+          <t>2026-02-28 22:56:48</t>
+        </is>
+      </c>
+      <c r="P10" s="28" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
